--- a/data_pulling/team_game_logs_1819/team_game_log_CHA.xlsx
+++ b/data_pulling/team_game_logs_1819/team_game_log_CHA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
   <si>
     <t>game.awayTeamAbbreviation</t>
   </si>
@@ -286,6 +286,9 @@
     <t>MIN</t>
   </si>
   <si>
+    <t>NYK</t>
+  </si>
+  <si>
     <t>2018-10-17T23:00:00.000Z</t>
   </si>
   <si>
@@ -359,6 +362,9 @@
   </si>
   <si>
     <t>2018-12-08T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-10T00:30:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -716,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV26"/>
+  <dimension ref="A1:BV27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -957,7 +963,7 @@
         <v>47572</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -1181,7 +1187,7 @@
         <v>47586</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -1405,7 +1411,7 @@
         <v>47599</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F4">
         <v>12</v>
@@ -1629,7 +1635,7 @@
         <v>47610</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1853,7 +1859,7 @@
         <v>47625</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2077,7 +2083,7 @@
         <v>47636</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -2301,7 +2307,7 @@
         <v>47647</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -2525,7 +2531,7 @@
         <v>47665</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -2749,7 +2755,7 @@
         <v>47680</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -2973,7 +2979,7 @@
         <v>47695</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>7</v>
@@ -3197,7 +3203,7 @@
         <v>47718</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -3421,7 +3427,7 @@
         <v>47737</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -3645,7 +3651,7 @@
         <v>47753</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -3869,7 +3875,7 @@
         <v>47768</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -4093,7 +4099,7 @@
         <v>47794</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -4317,7 +4323,7 @@
         <v>47808</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -4541,7 +4547,7 @@
         <v>47821</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -4765,7 +4771,7 @@
         <v>47843</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -4989,7 +4995,7 @@
         <v>47857</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -5213,7 +5219,7 @@
         <v>47863</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -5437,7 +5443,7 @@
         <v>47875</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -5661,7 +5667,7 @@
         <v>47889</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -5885,7 +5891,7 @@
         <v>47907</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -6109,7 +6115,7 @@
         <v>47931</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -6130,76 +6136,76 @@
         <v>121</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P25">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="R25">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="S25">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="T25">
-        <v>53.8</v>
+        <v>43.1</v>
       </c>
       <c r="U25">
+        <v>33</v>
+      </c>
+      <c r="V25">
+        <v>33</v>
+      </c>
+      <c r="W25">
         <v>12</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>12</v>
       </c>
-      <c r="W25">
-        <v>7</v>
-      </c>
-      <c r="X25">
-        <v>7</v>
-      </c>
       <c r="Y25">
-        <v>58.3</v>
+        <v>36.4</v>
       </c>
       <c r="Z25">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AA25">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AB25">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AC25">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AD25">
-        <v>55.3</v>
+        <v>40.8</v>
       </c>
       <c r="AE25">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF25">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AG25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI25">
-        <v>72.7</v>
+        <v>80</v>
       </c>
       <c r="AJ25">
         <v>0</v>
@@ -6229,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AT25">
         <v>15</v>
@@ -6238,10 +6244,10 @@
         <v>15</v>
       </c>
       <c r="AV25">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AW25">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AX25">
         <v>0</v>
@@ -6265,40 +6271,40 @@
         <v>17</v>
       </c>
       <c r="BE25">
-        <v>-64</v>
+        <v>-17</v>
       </c>
       <c r="BF25">
-        <v>-64</v>
+        <v>-17</v>
       </c>
       <c r="BG25">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="BH25">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="BI25">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="BJ25">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="BK25">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="BL25">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="BM25">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BN25">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BO25">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="BP25">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="BQ25">
         <v>0</v>
@@ -6333,16 +6339,16 @@
         <v>47937</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F26">
         <v>9</v>
       </c>
       <c r="G26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I26">
         <v>9</v>
@@ -6456,10 +6462,10 @@
         <v>20</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AV26">
         <v>20</v>
@@ -6480,10 +6486,10 @@
         <v>20</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BD26">
         <v>20</v>
@@ -6540,6 +6546,230 @@
         <v>74</v>
       </c>
       <c r="BV26">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:74">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>47959</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>107</v>
+      </c>
+      <c r="K27">
+        <v>107</v>
+      </c>
+      <c r="L27">
+        <v>11</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>12</v>
+      </c>
+      <c r="O27">
+        <v>12</v>
+      </c>
+      <c r="P27">
+        <v>53</v>
+      </c>
+      <c r="Q27">
+        <v>53</v>
+      </c>
+      <c r="R27">
+        <v>30</v>
+      </c>
+      <c r="S27">
+        <v>30</v>
+      </c>
+      <c r="T27">
+        <v>56.6</v>
+      </c>
+      <c r="U27">
+        <v>34</v>
+      </c>
+      <c r="V27">
+        <v>34</v>
+      </c>
+      <c r="W27">
+        <v>12</v>
+      </c>
+      <c r="X27">
+        <v>12</v>
+      </c>
+      <c r="Y27">
+        <v>35.3</v>
+      </c>
+      <c r="Z27">
+        <v>87</v>
+      </c>
+      <c r="AA27">
+        <v>87</v>
+      </c>
+      <c r="AB27">
+        <v>42</v>
+      </c>
+      <c r="AC27">
+        <v>42</v>
+      </c>
+      <c r="AD27">
+        <v>48.3</v>
+      </c>
+      <c r="AE27">
+        <v>27</v>
+      </c>
+      <c r="AF27">
+        <v>27</v>
+      </c>
+      <c r="AG27">
+        <v>23</v>
+      </c>
+      <c r="AH27">
+        <v>23</v>
+      </c>
+      <c r="AI27">
+        <v>85.2</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>17</v>
+      </c>
+      <c r="AT27">
+        <v>25</v>
+      </c>
+      <c r="AU27">
+        <v>25</v>
+      </c>
+      <c r="AV27">
+        <v>17</v>
+      </c>
+      <c r="AW27">
+        <v>17</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>17</v>
+      </c>
+      <c r="BB27">
+        <v>25</v>
+      </c>
+      <c r="BC27">
+        <v>25</v>
+      </c>
+      <c r="BD27">
+        <v>17</v>
+      </c>
+      <c r="BE27">
+        <v>12</v>
+      </c>
+      <c r="BF27">
+        <v>12</v>
+      </c>
+      <c r="BG27">
+        <v>19</v>
+      </c>
+      <c r="BH27">
+        <v>19</v>
+      </c>
+      <c r="BI27">
+        <v>119</v>
+      </c>
+      <c r="BJ27">
+        <v>119</v>
+      </c>
+      <c r="BK27">
+        <v>36</v>
+      </c>
+      <c r="BL27">
+        <v>36</v>
+      </c>
+      <c r="BM27">
+        <v>6</v>
+      </c>
+      <c r="BN27">
+        <v>6</v>
+      </c>
+      <c r="BO27">
+        <v>42</v>
+      </c>
+      <c r="BP27">
+        <v>42</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>1</v>
+      </c>
+      <c r="BT27">
+        <v>1</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV27">
         <v>93</v>
       </c>
     </row>
